--- a/repair/repair.xlsx
+++ b/repair/repair.xlsx
@@ -595,7 +595,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>VerificaChisuraRiparazione</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>VerificaChisuraRiparazione</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>VerificaChisuraRiparazione</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>VerificaChisuraRiparazione</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">

--- a/repair/repair.xlsx
+++ b/repair/repair.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,34 +459,34 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>VenditaRiparazione</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>RiparazioneVenduta</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
           <t>AvvioRiparazione</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>RiparazioneAvviata</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>ConfigurazioneRiparazione</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Opening</t>
+          <t>AvvioRiparazione</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>RiparazioneVenduta</t>
+          <t>RiparazioneAvviata</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>AvvioRiparazione</t>
+          <t>ConfigurazioneRiparazione</t>
         </is>
       </c>
     </row>
@@ -515,12 +515,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>RiparazioneConfigurata</t>
+          <t>TimelineDefinita</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>DefinizioneTimeline</t>
+          <t>AssegnazioneMonitoraggio</t>
         </is>
       </c>
     </row>
@@ -532,186 +532,317 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneAppuntamento</t>
+          <t>PianificazioneAppuntamentoR</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>DefinizioneTimeline</t>
+          <t>AssegnazioneMonitoraggio</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>MonitoraggioTerminato</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>MonitoraggioAttivita</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneAppuntamento</t>
+          <t>AssegnazioneMonitoraggio</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoPianificato</t>
+          <t>MonitoraggioAssegnato</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>MonitoraggioAttivita</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>MonitoraggioAttivita</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>AttivitaNonCompletate</t>
+          <t>RiparazioneNonChiusa</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>MonitoraggioAttivita</t>
+          <t>ConfigurazioneRiparazione</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>MonitoraggioAttivita</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>AttivitaCompletate</t>
+          <t>DatiNonCompletati</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusuraRiparazione</t>
+          <t>DefinizioneTimeline</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>NuovoSopralluogo</t>
+          <t>PeriziaPostRiparazione</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneAppuntamento</t>
+          <t>PERIZIA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>VerificaChiusuraRiparazione</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraPostRiparazione</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneBudget</t>
+          <t>CHIUSURA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneBudget</t>
+          <t>MonitoraggioAttivita</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneAttivita</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneAttivita</t>
+          <t>MonitoraggioAttivita</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>annulla</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>MonitoraggioAttivita</t>
+          <t>EsecuzioneSopralluogoR</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneAttivita</t>
+          <t>ApprovazioneBudget</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneAttivita</t>
+          <t>BudgetInApprovazione</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusuraRiparazione</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>RiparazioneNonChiusa</t>
+          <t>ApprovazioneAttivita</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>ConfigurazioneRiparazione</t>
+          <t>AttivitaInApprovazione</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusuraRiparazione</t>
+          <t>PianificazioneAppuntamentoR</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>ServizioPostRiparazione</t>
+          <t>AppuntamentoPianificato</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>EsecuzioneSopralluogoR</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusuraRiparazione</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>ChiusuraPostRiparazione</t>
+          <t>EsecuzioneSopralluogoR</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>ApprovazioneBudget</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>EsecuzioneSopralluogoR</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>SoprallugoCompletato</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>BudgetInApprovazione</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>EsecuzioneSopralluogoR</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaCancellata</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaCancellata</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>BudgetInApprovazione</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>BudgetApprovato</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>EsecuzioneAttivita</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>EsecuzioneAttivita</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>ApprovazioneAttivita</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>EsecuzioneAttivita</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>NuovoSopralluogo</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>PianificazioneAppuntamentoR</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>EsecuzioneAttivita</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaCompletata</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaInApprovazione</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaInApprovazione</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaApprovata</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaApprovata</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaApprovata</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>MonitoraggioAttivita</t>
         </is>
       </c>
     </row>

--- a/repair/repair.xlsx
+++ b/repair/repair.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,12 +515,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>TimelineDefinita</t>
+          <t>MonitoraggioAssegnato</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneMonitoraggio</t>
+          <t>MonitoraggioAttivita</t>
         </is>
       </c>
     </row>
@@ -530,6 +530,11 @@
           <t>DefinizioneTimeline</t>
         </is>
       </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaAssegnata</t>
+        </is>
+      </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
           <t>PianificazioneAppuntamentoR</t>
@@ -539,310 +544,194 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneMonitoraggio</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>MonitoraggioTerminato</t>
+          <t>MonitoraggioAttivita</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusuraRiparazione</t>
+          <t>EsecVisioApprovazBudget</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneMonitoraggio</t>
+          <t>MonitoraggioAttivita</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>MonitoraggioAssegnato</t>
+          <t>MonitoraggioTerminato</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>MonitoraggioAttivita</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
+          <t>EsecVisioApprovazBudget</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
           <t>VerificaChiusuraRiparazione</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>RiparazioneNonChiusa</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>ConfigurazioneRiparazione</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusuraRiparazione</t>
+          <t>EsecVisioApprovazBudget</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>DatiNonCompletati</t>
+          <t>BudgetApprovato</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>DefinizioneTimeline</t>
+          <t>EsecuzioneSopralluogoR</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusuraRiparazione</t>
+          <t>PianificazioneAppuntamentoR</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>PeriziaPostRiparazione</t>
+          <t>AppuntamentoPianificato</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>PERIZIA</t>
+          <t>EsecVisioApprovazBudget</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusuraRiparazione</t>
+          <t>PianificazioneAppuntamentoR</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraPostRiparazione</t>
+          <t>AppuntamentoPianificato</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>CHIUSURA</t>
+          <t>EsecuzioneSopralluogoR</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>MonitoraggioAttivita</t>
+          <t>EsecuzioneSopralluogoR</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>SopralluogoEseguito</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusuraRiparazione</t>
+          <t>FineLavori</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>MonitoraggioAttivita</t>
+          <t>FineLavori</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>annulla</t>
+          <t>LavoriTerminati</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoR</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneBudget</t>
+          <t>VerificaRiparazioneCompletata</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>RiparazioneNonChiusa</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>BudgetInApprovazione</t>
+          <t>ConfigurazioneRiparazione</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneAttivita</t>
+          <t>VerificaRiparazioneCompletata</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>DatiNonCompletati</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>AttivitaInApprovazione</t>
+          <t>VerificaRiparazioneCompletata</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneAppuntamentoR</t>
+          <t>VerificaRiparazioneCompletata</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoPianificato</t>
+          <t>PeriziaPostRiparazione</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoR</t>
+          <t>PERIZIA</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoR</t>
+          <t>VerificaRiparazioneCompletata</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraPostRiparazione</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneBudget</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzioneSopralluogoR</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>SoprallugoCompletato</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>BudgetInApprovazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzioneSopralluogoR</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>AttivitaCancellata</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>AttivitaCancellata</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>BudgetInApprovazione</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>BudgetApprovato</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzioneAttivita</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzioneAttivita</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>ApprovazioneAttivita</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzioneAttivita</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>NuovoSopralluogo</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>PianificazioneAppuntamentoR</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzioneAttivita</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>AttivitaCompletata</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>AttivitaInApprovazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>AttivitaInApprovazione</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>AttivitaApprovata</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>AttivitaApprovata</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>AttivitaApprovata</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>MonitoraggioAttivita</t>
+          <t>CHIUSURA</t>
         </is>
       </c>
     </row>

--- a/repair/repair.xlsx
+++ b/repair/repair.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +556,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>MonitoraggioAttivita</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>MonitoraggioTerminato</t>
+          <t>EsecVisioApprovazBudget</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusuraRiparazione</t>
+          <t>VerificaDocumentiBudget</t>
         </is>
       </c>
     </row>
@@ -576,162 +571,218 @@
           <t>EsecVisioApprovazBudget</t>
         </is>
       </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Abilita</t>
+        </is>
+      </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusuraRiparazione</t>
+          <t>ChiusuraIntervento</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>EsecVisioApprovazBudget</t>
+          <t>VerificaDocumentiBudget</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>BudgetApprovato</t>
+          <t>Chiude</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoR</t>
+          <t>MonitoraggioAttivita</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneAppuntamentoR</t>
+          <t>VerificaDocumentiBudget</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoPianificato</t>
+          <t>TuttiLavoriTerminati</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>EsecVisioApprovazBudget</t>
+          <t>VerificaRiparazioneCompletata</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneAppuntamentoR</t>
+          <t>VerificaRiparazioneCompletata</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoPianificato</t>
+          <t>DatiNonCompleti</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoR</t>
+          <t>VerificaRiparazioneCompletata</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoR</t>
+          <t>VerificaRiparazioneCompletata</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoEseguito</t>
+          <t>PeriziaPostRiparazione</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>FineLavori</t>
+          <t>PERIZIA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>FineLavori</t>
+          <t>VerificaRiparazioneCompletata</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>LavoriTerminati</t>
+          <t>ChiusuraPostRiparazione</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusuraRiparazione</t>
+          <t>CHIUSURA</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>VerificaRiparazioneCompletata</t>
+          <t>PianificazioneAppuntamentoR</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>RiparazioneNonChiusa</t>
+          <t>AppuntamentoPianificato</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>ConfigurazioneRiparazione</t>
+          <t>EsecVisioApprovazBudget</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>VerificaRiparazioneCompletata</t>
+          <t>PianificazioneAppuntamentoR</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>DatiNonCompletati</t>
+          <t>AppuntamentoPianificato</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>VerificaRiparazioneCompletata</t>
+          <t>EsecuzioneSopralluogoR</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>VerificaRiparazioneCompletata</t>
+          <t>EsecuzioneSopralluogoR</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>PeriziaPostRiparazione</t>
+          <t>SopralluogoEseguito</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>PERIZIA</t>
+          <t>ChiusuraIntervento</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>VerificaRiparazioneCompletata</t>
+          <t>ChiusuraIntervento</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraPostRiparazione</t>
+          <t>NuovoSopralluogo</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>CHIUSURA</t>
+          <t>PianificazioneAppuntamentoR</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraIntervento</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaChiusa</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>FineLavori</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>FineLavori</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>LavoriTerminati</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>VerificaDocumentiBudget</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>FineLavori</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>NuovoSopralluogo</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>PianificazioneAppuntamentoR</t>
         </is>
       </c>
     </row>
